--- a/Experiment Output/Jan/Format/DiCE_XAI_Metrics_Experiments Formatted cf v1-0 290124.xlsx
+++ b/Experiment Output/Jan/Format/DiCE_XAI_Metrics_Experiments Formatted cf v1-0 290124.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T_UD\Dissertation\PreWork_Repo\Dissertation_PreWork\Experiment Output\Jan\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3587C4B2-FE98-4B66-A447-E33EF3E13E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8481855-E419-47F9-9F60-62D2725AA9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DiCE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -45,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -199,10 +199,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -510,7 +510,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
